--- a/assets/results/RI_result.xlsx
+++ b/assets/results/RI_result.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Newport County" sheetId="1" r:id="rId1"/>
+    <sheet name="Bristol County" sheetId="2" r:id="rId2"/>
+    <sheet name="Kent County" sheetId="3" r:id="rId3"/>
+    <sheet name="Providence County" sheetId="4" r:id="rId4"/>
+    <sheet name="Washington County" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +179,37 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Bristol County</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Kent County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Providence County</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
     <t>Washington County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,6 +611,2334 @@
         <v>4</v>
       </c>
       <c r="C4">
+        <v>82731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>70546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>46694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>77.59999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.261068702290076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.149618320610687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>19242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>35.76829268292683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>516.4126865671642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>572.670349907919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3012.416740872663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001599177565823291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1652864241247358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>41496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>38019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>55125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>30408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.065573770491803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.029866117404737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>48645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>25576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.444267515923567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.023885350318471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>12108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>15.32960893854749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>322.0702836004932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>736.0217588395286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.07104253835425384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>33433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>53750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.36764705882353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.019367991845056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>164122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>143667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>91851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>69.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9097744360902256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.245112781954887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>36479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>84.84633569739952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>372.9553208773355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2173.55737704918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>7481.598725099602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002181989738750958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.2146900984844017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>40096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>51194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>36828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>39787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.151898734177215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9948665297741273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>636161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>382712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>148608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>337021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>66.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.070754716981132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.105345911949685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>116188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>399.6230366492147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>11854.62545701896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>8436.838198198198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>96616.33822493874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003849259459997566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.9459223290231951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>37085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>31523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>20750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>41468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>132548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.337209302325582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9092783505154639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>126139</v>
       </c>
     </row>
